--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -142,7 +142,7 @@
     <t xml:space="preserve">kan</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಸೂರ್ಯ</t>
+    <t xml:space="preserve">ಸೂರ್ಯ</t>
   </si>
   <si>
     <t xml:space="preserve">ಸೋಮ</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">ಮಂಗಳ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಬುಧ</t>
+    <t xml:space="preserve">ಬುಧ</t>
   </si>
   <si>
     <t xml:space="preserve">ಗುರು</t>
@@ -172,13 +172,13 @@
     <t xml:space="preserve">सोमवार</t>
   </si>
   <si>
-    <t xml:space="preserve"> मंगल</t>
+    <t xml:space="preserve">मंगल</t>
   </si>
   <si>
     <t xml:space="preserve">बुध</t>
   </si>
   <si>
-    <t xml:space="preserve"> इकट्ठा करना</t>
+    <t xml:space="preserve">इकट्ठा करना</t>
   </si>
   <si>
     <t xml:space="preserve">शुक्र</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">tam</t>
   </si>
   <si>
-    <t xml:space="preserve"> சூரியன்</t>
+    <t xml:space="preserve">சூரியன்</t>
   </si>
   <si>
     <t xml:space="preserve">திங்கள்</t>
@@ -344,7 +344,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandeep.kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\masterdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC7772A-21F5-44A0-A96F-BCA9CEA9489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>lang_code</t>
   </si>
@@ -74,79 +75,34 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t>LUN</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>JEU</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>SAM</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t>تزوج</t>
-  </si>
-  <si>
-    <t>خميس</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>جلس</t>
-  </si>
-  <si>
-    <t>الإثنين</t>
+    <t>hin</t>
+  </si>
+  <si>
+    <t>रवि</t>
+  </si>
+  <si>
+    <t>सोमवार</t>
+  </si>
+  <si>
+    <t>मंगल</t>
+  </si>
+  <si>
+    <t>बुध</t>
+  </si>
+  <si>
+    <t>इकट्ठा करना</t>
+  </si>
+  <si>
+    <t>शुक्र</t>
+  </si>
+  <si>
+    <t>बैठा</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,7 +168,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,20 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="6" width="8.42578125" style="1"/>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="5" max="6" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,17 +482,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -546,17 +502,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -566,17 +522,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -586,17 +542,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -606,17 +562,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -626,17 +582,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -646,57 +602,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -706,17 +662,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -726,17 +682,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>104</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -746,17 +702,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>105</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -766,17 +722,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>106</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -786,163 +742,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>107</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandeep.kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9937177B-07B3-4AD0-A40F-4D8B4C1FA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>lang_code</t>
   </si>
@@ -44,36 +45,12 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>TUE</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
@@ -96,57 +73,12 @@
   </si>
   <si>
     <t>SAM</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t>تزوج</t>
-  </si>
-  <si>
-    <t>خميس</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>جلس</t>
-  </si>
-  <si>
-    <t>الإثنين</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,7 +144,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,20 +424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="6" width="8.42578125" style="1"/>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="5" max="6" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,424 +457,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>102</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>104</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>105</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>107</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
